--- a/mywork_ByZCG/2023-08-23 热门可转债+双低(只有今天的数据).xlsx
+++ b/mywork_ByZCG/2023-08-23 热门可转债+双低(只有今天的数据).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,16 @@
           <t>申万二级</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>风险提示</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>热门概念</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -602,6 +612,12 @@
           <t>通用设备</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>新能源</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -657,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -673,6 +689,12 @@
       <c r="S3" t="inlineStr">
         <is>
           <t>环境治理</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>雄安新区;碳中和;园林开发;土壤修复;PPP概念;露营经济;新型城镇化;乡村振兴;水利</t>
         </is>
       </c>
     </row>
@@ -748,6 +770,12 @@
           <t>环保设备Ⅱ</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>脱硫脱硝;废气处理;大数据;PM2.5;环境监测;雄安新区;节能环保;固废处理;透明工厂;碳中和;集成电路概念;深股通;物联网;专精特新</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -806,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>10</v>
@@ -821,6 +849,12 @@
           <t>装修装饰Ⅱ</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>智能家居;服务机器人;机器人概念;长三角一体化;精装修;装配式建筑;建筑节能;恒大概念;新型城镇化;人工智能;ST板块</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -894,6 +928,12 @@
           <t>服装家纺</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>智能物流;阿里巴巴概念;融资融券;腾讯概念;转融券标的;新零售;网络直播;电子商务;富时罗素概念股;标普道琼斯A股;消费金融;MSCI概念;三胎概念;大消费;沪股通;证金持股</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -955,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -965,6 +1005,12 @@
       <c r="S7" t="inlineStr">
         <is>
           <t>基础建设</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>长江防护林;风沙治理;矿山生态修复;海岛整治修复;乡村振兴;雄安新区;海绵城市;垃圾分类;融资融券;转融券标的;美丽中国;园林开发;优先股概念;土壤修复;新型城镇化;水利;地方国企改革;央企国企改革;国企改革;粤港澳大湾区;深股通;污水处理;地下管网</t>
         </is>
       </c>
     </row>
@@ -1040,6 +1086,12 @@
           <t>燃气Ⅱ</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>天然气;地方国企改革;国企改革;安徽国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1113,6 +1165,12 @@
           <t>化学纤维</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>涤纶;口罩;半年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1186,6 +1244,12 @@
           <t>化学制药</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>生物医药</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1247,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1257,6 +1321,12 @@
       <c r="S11" t="inlineStr">
         <is>
           <t>环境治理</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>污水处理;PPP概念;股权转让;新型城镇化;节能环保;地方国企改革;央企国企改革;国企改革</t>
         </is>
       </c>
     </row>
@@ -1332,6 +1402,12 @@
           <t>工程咨询服务Ⅱ</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>一带一路;地下管网;雄安新区;装配式建筑;新型城镇化;光伏建筑一体化;碳交易;时空大数据;人工智能;智能交通;数据要素</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1405,6 +1481,12 @@
           <t>汽车零部件</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>新能源汽车;京东概念;外贸受益概念;人民币贬值受益;华为汽车</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1454,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N14" t="n">
         <v>14</v>
@@ -1478,6 +1560,12 @@
           <t>证券Ⅱ</t>
         </is>
       </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>融资融券;沪股通;转融券标的;MSCI概念;富时罗素概念;富时罗素概念股;标普道琼斯A股;互联网券商;北交所概念;北京自贸区;央企国企改革;中字头股票;国企改革;同花顺中特估100</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1539,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1549,6 +1637,12 @@
       <c r="S15" t="inlineStr">
         <is>
           <t>化学制药</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>融资融券;转融券标的;医保目录;富时罗素概念股;标普道琼斯A股;参股民营银行;幽门螺杆菌概念;肝炎概念;仿制药;新冠治疗;猴痘概念;仿制药一致性评价</t>
         </is>
       </c>
     </row>
@@ -1624,6 +1718,12 @@
           <t>燃气Ⅱ</t>
         </is>
       </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>室外经济;美丽中国;天然气;俄乌冲突概念;露营经济</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1697,6 +1797,12 @@
           <t>城商行Ⅱ</t>
         </is>
       </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>沪股通;融资融券;转融券标的;富时罗素概念;富时罗素概念股;MSCI概念;标普道琼斯A股;地方国企改革;国企改革;四川国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1770,6 +1876,12 @@
           <t>装修装饰Ⅱ</t>
         </is>
       </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>装配式建筑;精装修</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1843,6 +1955,12 @@
           <t>环境治理</t>
         </is>
       </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>海绵城市;雄安新区;垃圾分类;消毒剂;医疗废物处理;节能环保;固废处理;污水处理;碳中和;脱硫脱硝;股权转让;土壤修复;PPP概念;废气处理;动力电池回收;方舱医院;国企改革;地方国企改革;无人驾驶</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1916,6 +2034,12 @@
           <t>通用设备</t>
         </is>
       </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>水利;富时罗素概念股;燃料电池;专精特新;标普道琼斯A股;航空航天;空气能热泵;半年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1989,6 +2113,12 @@
           <t>证券Ⅱ</t>
         </is>
       </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>沪股通;融资融券;期货概念;转融券标的;富时罗素概念;富时罗素概念股;共同富裕示范区;参股基金;标普道琼斯A股;MSCI概念;国企改革;浙江国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2062,6 +2192,12 @@
           <t>炼化及贸易</t>
         </is>
       </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>新材料概念;锂电原料;氢能源;专精特新;智能制造</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2135,6 +2271,12 @@
           <t>物流</t>
         </is>
       </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>油气运输仓储;粤港澳大湾区;富时罗素概念股;深股通;富时罗素概念;标普道琼斯A股;融资融券;转融券标的</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2208,6 +2350,12 @@
           <t>农商行Ⅱ</t>
         </is>
       </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>融资融券;转融券标的;富时罗素概念;富时罗素概念股;标普道琼斯A股;沪股通</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2281,6 +2429,12 @@
           <t>普钢</t>
         </is>
       </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>地下管网;雄安新区;沪股通;半年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2354,6 +2508,12 @@
           <t>医药商业</t>
         </is>
       </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>医保目录;医疗器械概念;医药电商;冷链物流;辉瑞概念;地方国企改革;国企改革;数字经济;跨境电商;浙江国企改革;共同富裕示范区</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2406,7 +2566,7 @@
         <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2425,6 +2585,12 @@
       <c r="S27" t="inlineStr">
         <is>
           <t>多元金融</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>融资融券;转融券标的;融资租赁;标普道琼斯A股;地方国企改革;国企改革;富时罗素概念股;沪股通;江苏国企改革</t>
         </is>
       </c>
     </row>
@@ -2500,6 +2666,12 @@
           <t>造纸</t>
         </is>
       </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>造纸转暖;循环经济;人民币升值;松脂;嘉兴土改;融资融券;转融券标的;箱板纸;纸浆;长三角一体化;以纸代塑概念;创投;工业机器人;机器人概念;托育服务;绿色电力;一带一路;数字经济</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2573,6 +2745,12 @@
           <t>通用设备</t>
         </is>
       </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>融资融券;水利;节能减排;中俄贸易概念;中非合作;人民币贬值受益;外贸受益概念;转融券标的;空气能热泵</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2634,7 +2812,7 @@
         <v>6</v>
       </c>
       <c r="Q30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2644,6 +2822,12 @@
       <c r="S30" t="inlineStr">
         <is>
           <t>装修装饰Ⅱ</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>PPP概念;粤港澳大湾区;云计算;光伏建筑一体化;装配式建筑;华为概念;光伏概念;风电;物业管理;杭州亚运会;基建工程;数据中心;新型城镇化;新基建;东数西算（算力）;医疗器械概念;冬奥会;精装修;数字货币;金融科技;乡村振兴;区块链;算力租赁</t>
         </is>
       </c>
     </row>
@@ -2719,6 +2903,12 @@
           <t>冶钢原料</t>
         </is>
       </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>铁矿石;深股通;锂电池;锂矿;创投</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2792,6 +2982,12 @@
           <t>燃气Ⅱ</t>
         </is>
       </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>融资融券;转融券标的;富时罗素概念;富时罗素概念股;氢能源;标普道琼斯A股;沪股通;地方国企改革;贵州国企改革;天然气</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2865,6 +3061,12 @@
           <t>包装印刷</t>
         </is>
       </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>纸浆;物联网;烟草;富时罗素概念;数字孪生;方舱医院;AIGC概念;食品包装;人工智能;ChatGPT概念;机器人概念;杭州湾大湾区;虚拟机器人;共同富裕示范区;数字水印</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2938,6 +3140,12 @@
           <t>电网设备</t>
         </is>
       </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>融资融券;转融券标的;智能电网;特高压</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2999,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -3009,6 +3217,12 @@
       <c r="S35" t="inlineStr">
         <is>
           <t>证券Ⅱ</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>期货概念;融资融券;转融券标的;富时罗素概念;富时罗素概念股;标普道琼斯A股;参股基金;MSCI概念;地方国企改革;国企改革;沪股通;安徽国企改革</t>
         </is>
       </c>
     </row>
@@ -3069,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -3082,6 +3296,16 @@
       <c r="S36" t="inlineStr">
         <is>
           <t>种植业</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2023-08-21：中融信托暴雷；</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>乡村振兴;农业种植;西部开发</t>
         </is>
       </c>
     </row>
@@ -3157,6 +3381,12 @@
           <t>光学光电子</t>
         </is>
       </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>节能照明;长三角一体化;家用电器</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3230,6 +3460,12 @@
           <t>化学制品</t>
         </is>
       </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>萤石;氢氟酸;PVDF概念;氟化工概念;环氧丙烷;融资融券;转融券标的;沪股通</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3303,6 +3539,12 @@
           <t>工业金属</t>
         </is>
       </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>新能源汽车;铝材加工;精装修;新材料概念;恒大概念;建筑节能;比亚迪概念;蔚来汽车概念;半年报预增</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3376,6 +3618,12 @@
           <t>包装印刷</t>
         </is>
       </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>参股新三板;食品包装;长三角一体化</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3449,6 +3697,12 @@
           <t>基础建设</t>
         </is>
       </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>装配式建筑;参股新三板;PPP概念;标普道琼斯A股;ST板块;富时罗素概念股;园林开发;股权转让;新型城镇化</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3522,6 +3776,12 @@
           <t>化学纤维</t>
         </is>
       </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>融资融券;转融券标的;专精特新;碳纤维</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3580,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q43" t="n">
         <v>19</v>
@@ -3595,6 +3855,12 @@
           <t>化学制品</t>
         </is>
       </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>维生素;NMN概念;人民币贬值受益;深股通</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3668,6 +3934,12 @@
           <t>水泥</t>
         </is>
       </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>西部开发;融资融券;转融券标的;工程建材;基建工程;参股新三板;富时罗素概念;富时罗素概念股;标普道琼斯A股;融资租赁;小金属概念;水泥概念;金属铜;一带一路;地方国企改革;国企改革;参股银行;同花顺中特估100;西藏国企改革</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3741,6 +4013,12 @@
           <t>化学制品</t>
         </is>
       </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>新材料概念;可降解塑料;调味品;农业种植;乡村振兴;参股银行</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3799,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q46" t="n">
         <v>20</v>
@@ -3814,6 +4092,12 @@
           <t>服装家纺</t>
         </is>
       </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>人民币贬值受益;沪股通</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3860,7 +4144,7 @@
         <v>1.211</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
@@ -3885,6 +4169,12 @@
       <c r="S47" t="inlineStr">
         <is>
           <t>物流</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>一带一路;雄安新区;汽车关税下调;富时罗素概念;富时罗素概念股;标普道琼斯A股;中俄贸易概念;新能源物流车;北京自贸区;统一大市场;动力电池回收;沪股通;储能;半年报预增</t>
         </is>
       </c>
     </row>
